--- a/src/test/resources/Documents/4143/Base/JobPlanning.xlsx
+++ b/src/test/resources/Documents/4143/Base/JobPlanning.xlsx
@@ -65,21 +65,30 @@
     <t>Folded Sheet  4p</t>
   </si>
   <si>
+    <t>Sheet-fed Press F 4x0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>S1 HEI 640C</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>Not allocated</t>
+  </si>
+  <si>
     <t>Cut</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Cutter 45"</t>
   </si>
   <si>
     <t>531</t>
   </si>
   <si>
-    <t>Not allocated</t>
-  </si>
-  <si>
     <t>Fold</t>
   </si>
   <si>
@@ -87,15 +96,6 @@
   </si>
   <si>
     <t>500</t>
-  </si>
-  <si>
-    <t>Sheet-fed Press F 4x0</t>
-  </si>
-  <si>
-    <t>S1 HEI 640C</t>
-  </si>
-  <si>
-    <t>562</t>
   </si>
   <si>
     <t>Folded Sheet - Color Proof</t>
@@ -2916,13 +2916,13 @@
         <v>39</v>
       </c>
       <c r="B8" t="s" s="99">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s" s="100">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="101">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s" s="102">
         <v>18</v>
@@ -2955,10 +2955,10 @@
         <v>18</v>
       </c>
       <c r="O8" t="s" s="112">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P8" t="s" s="113">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -2966,13 +2966,13 @@
         <v>39</v>
       </c>
       <c r="B9" t="s" s="115">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="116">
         <v>18</v>
       </c>
       <c r="D9" t="s" s="117">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s" s="118">
         <v>18</v>
@@ -3005,10 +3005,10 @@
         <v>18</v>
       </c>
       <c r="O9" t="s" s="128">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" t="s" s="129">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -3016,13 +3016,13 @@
         <v>39</v>
       </c>
       <c r="B10" t="s" s="131">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s" s="132">
         <v>18</v>
       </c>
       <c r="D10" t="s" s="133">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s" s="134">
         <v>18</v>
@@ -3055,10 +3055,10 @@
         <v>18</v>
       </c>
       <c r="O10" t="s" s="144">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P10" t="s" s="145">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -3216,13 +3216,13 @@
         <v>46</v>
       </c>
       <c r="B14" t="s" s="195">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s" s="196">
         <v>18</v>
       </c>
       <c r="D14" t="s" s="197">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s" s="198">
         <v>18</v>
@@ -3255,10 +3255,10 @@
         <v>18</v>
       </c>
       <c r="O14" t="s" s="208">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P14" t="s" s="209">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -3266,13 +3266,13 @@
         <v>46</v>
       </c>
       <c r="B15" t="s" s="211">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s" s="212">
         <v>18</v>
       </c>
       <c r="D15" t="s" s="213">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s" s="214">
         <v>18</v>
@@ -3305,10 +3305,10 @@
         <v>18</v>
       </c>
       <c r="O15" t="s" s="224">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" t="s" s="225">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -3316,13 +3316,13 @@
         <v>46</v>
       </c>
       <c r="B16" t="s" s="227">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s" s="228">
         <v>18</v>
       </c>
       <c r="D16" t="s" s="229">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s" s="230">
         <v>18</v>
@@ -3355,10 +3355,10 @@
         <v>18</v>
       </c>
       <c r="O16" t="s" s="240">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P16" t="s" s="241">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -3616,13 +3616,13 @@
         <v>60</v>
       </c>
       <c r="B22" t="s" s="323">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s" s="324">
         <v>18</v>
       </c>
       <c r="D22" t="s" s="325">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s" s="326">
         <v>18</v>
@@ -3655,10 +3655,10 @@
         <v>18</v>
       </c>
       <c r="O22" t="s" s="336">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P22" t="s" s="337">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -3666,13 +3666,13 @@
         <v>60</v>
       </c>
       <c r="B23" t="s" s="339">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s" s="340">
         <v>18</v>
       </c>
       <c r="D23" t="s" s="341">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s" s="342">
         <v>18</v>
@@ -3705,10 +3705,10 @@
         <v>18</v>
       </c>
       <c r="O23" t="s" s="352">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s" s="353">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
